--- a/pcr.xlsx
+++ b/pcr.xlsx
@@ -374,10 +374,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C60"/>
+  <dimension ref="A1:C61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="C49" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1010,6 +1010,17 @@
         <v>7</v>
       </c>
     </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>43920</v>
+      </c>
+      <c r="B61">
+        <v>63</v>
+      </c>
+      <c r="C61">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
